--- a/Docs/Excel/Schedule&Priorities_OnSiteX.xlsx
+++ b/Docs/Excel/Schedule&Priorities_OnSiteX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\Michael Bates\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\_A\_UX\OnSiteX\Docs\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="40">
   <si>
     <t>|</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Date MetaData:</t>
+  </si>
+  <si>
+    <t>★★★★★</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -244,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -277,9 +283,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,6 +318,19 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -615,14 +631,14 @@
     <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" customWidth="1"/>
     <col min="10" max="10" width="21.140625" customWidth="1"/>
     <col min="11" max="11" width="6.28515625" customWidth="1"/>
     <col min="13" max="13" width="20.5703125" style="4" customWidth="1"/>
     <col min="14" max="14" width="7.28515625" style="6" customWidth="1"/>
     <col min="15" max="15" width="10" style="3" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" style="14" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" style="13" customWidth="1"/>
     <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -630,29 +646,29 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="15"/>
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>34</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>33</v>
       </c>
       <c r="K1" t="s">
@@ -665,7 +681,7 @@
       <c r="O1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -723,7 +739,7 @@
       <c r="O3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="13">
         <v>42740</v>
       </c>
     </row>
@@ -749,7 +765,7 @@
       <c r="G4" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>42740</v>
       </c>
       <c r="I4" t="s">
@@ -767,7 +783,7 @@
       <c r="O4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="13">
         <v>42740</v>
       </c>
     </row>
@@ -793,7 +809,7 @@
       <c r="G5" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>42740</v>
       </c>
       <c r="I5" t="s">
@@ -811,7 +827,7 @@
       <c r="O5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="13">
         <v>42740</v>
       </c>
     </row>
@@ -837,7 +853,7 @@
       <c r="G6" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>42740</v>
       </c>
       <c r="I6" t="s">
@@ -855,7 +871,7 @@
       <c r="O6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="13">
         <v>42741</v>
       </c>
       <c r="Q6" t="s">
@@ -884,7 +900,7 @@
       <c r="G7" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>42741</v>
       </c>
       <c r="I7" t="s">
@@ -950,7 +966,7 @@
       <c r="O9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="13">
         <v>42740</v>
       </c>
     </row>
@@ -976,7 +992,7 @@
       <c r="G10" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>42740</v>
       </c>
       <c r="I10" t="s">
@@ -1042,7 +1058,7 @@
       <c r="O12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="13">
         <v>42742</v>
       </c>
     </row>
@@ -1068,7 +1084,7 @@
       <c r="G13" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>42742</v>
       </c>
       <c r="I13" t="s">
@@ -1086,7 +1102,7 @@
       <c r="O13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="13">
         <v>42742</v>
       </c>
     </row>
@@ -1112,7 +1128,7 @@
       <c r="G14" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>42742</v>
       </c>
       <c r="I14" t="s">
@@ -1130,7 +1146,7 @@
       <c r="O14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="13">
         <v>42742</v>
       </c>
     </row>
@@ -1156,7 +1172,7 @@
       <c r="G15" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>42742</v>
       </c>
       <c r="I15" t="s">
@@ -1174,7 +1190,7 @@
       <c r="O15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="13">
         <v>42742</v>
       </c>
     </row>
@@ -1200,7 +1216,7 @@
       <c r="G16" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>42742</v>
       </c>
       <c r="I16" t="s">
@@ -1244,7 +1260,7 @@
       <c r="O17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="13">
         <v>42743</v>
       </c>
     </row>
@@ -1270,7 +1286,7 @@
       <c r="G18" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>42743</v>
       </c>
       <c r="I18" t="s">
@@ -1336,7 +1352,7 @@
       <c r="O20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="13">
         <v>42744</v>
       </c>
     </row>
@@ -1362,7 +1378,7 @@
       <c r="G21" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="13">
         <v>42744</v>
       </c>
       <c r="I21" t="s">
@@ -1380,7 +1396,7 @@
       <c r="O21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="13">
         <v>42745</v>
       </c>
     </row>
@@ -1406,7 +1422,7 @@
       <c r="G22" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="13">
         <v>42745</v>
       </c>
       <c r="I22" t="s">
@@ -1424,7 +1440,7 @@
       <c r="O22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="13">
         <v>42746</v>
       </c>
     </row>
@@ -1450,7 +1466,7 @@
       <c r="G23" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="13">
         <v>42746</v>
       </c>
       <c r="I23" t="s">
@@ -1468,7 +1484,7 @@
       <c r="O23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="13">
         <v>42747</v>
       </c>
     </row>
@@ -1494,7 +1510,7 @@
       <c r="G24" t="s">
         <v>0</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="13">
         <v>42747</v>
       </c>
       <c r="I24" t="s">
@@ -1529,7 +1545,7 @@
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="11"/>
-      <c r="P25" s="15"/>
+      <c r="P25" s="14"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1549,7 +1565,7 @@
       <c r="G26" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="14"/>
       <c r="I26" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +1604,7 @@
       <c r="O27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="14" t="s">
+      <c r="P27" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1611,7 +1627,7 @@
       <c r="G28" t="s">
         <v>0</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="13" t="s">
         <v>27</v>
       </c>
       <c r="I28" t="s">
@@ -1626,7 +1642,7 @@
       <c r="O28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P28" s="14" t="s">
+      <c r="P28" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1649,7 +1665,7 @@
       <c r="G29" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="13" t="s">
         <v>27</v>
       </c>
       <c r="I29" t="s">
@@ -1664,7 +1680,7 @@
       <c r="O29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P29" s="14" t="s">
+      <c r="P29" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1687,7 +1703,7 @@
       <c r="G30" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="13" t="s">
         <v>27</v>
       </c>
       <c r="I30" t="s">
@@ -1750,7 +1766,7 @@
       <c r="O32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P32" s="14" t="s">
+      <c r="P32" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1773,7 +1789,7 @@
       <c r="G33" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="13" t="s">
         <v>27</v>
       </c>
       <c r="I33" t="s">
@@ -1790,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q49"/>
+  <dimension ref="B1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B38" sqref="B38:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1802,11 +1818,11 @@
     <col min="2" max="2" width="20.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="12" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12" style="24" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12" style="28" customWidth="1"/>
+    <col min="7" max="7" width="12" style="23" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="54.140625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="54.140625" style="20" customWidth="1"/>
     <col min="10" max="17" width="20.5703125" style="4" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1819,12 +1835,14 @@
       <c r="D1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="22"/>
-      <c r="I1" s="20" t="s">
+      <c r="F1" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="I1" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1832,12 +1850,12 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="23"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="30" t="s">
         <v>36</v>
       </c>
       <c r="J2" s="1"/>
@@ -1852,10 +1870,10 @@
       <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>42740</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -1867,10 +1885,10 @@
       <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>42740</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -1882,10 +1900,10 @@
       <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>42740</v>
       </c>
-      <c r="I5" s="26"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1897,19 +1915,19 @@
       <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>42741</v>
       </c>
-      <c r="I6" s="26"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="I7" s="26"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="26"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
@@ -1919,154 +1937,121 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="14">
+        <v>38</v>
+      </c>
+      <c r="E9" s="13">
         <v>42740</v>
       </c>
-      <c r="I9" s="26"/>
+      <c r="F9" s="28">
+        <v>42744</v>
+      </c>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="26"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="14">
-        <v>42742</v>
-      </c>
-      <c r="I11" s="26"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C12" s="6">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>42742</v>
       </c>
-      <c r="I12" s="26"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C13" s="6">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>42742</v>
       </c>
-      <c r="I13" s="26"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="13">
+        <v>42742</v>
+      </c>
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="6">
         <v>3.3</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="13">
         <v>42742</v>
       </c>
-      <c r="I14" s="26"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="26"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="6">
-        <v>4</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="14">
-        <v>42743</v>
-      </c>
-      <c r="I16" s="26"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="26"/>
+        <v>6</v>
+      </c>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C18" s="6">
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="14">
-        <v>42744</v>
-      </c>
-      <c r="I18" s="26"/>
+        <v>26</v>
+      </c>
+      <c r="E18" s="13">
+        <v>42743</v>
+      </c>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="6">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="14">
-        <v>42745</v>
-      </c>
-      <c r="I19" s="26"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="6">
-        <v>4</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="14">
-        <v>42746</v>
-      </c>
-      <c r="I20" s="26"/>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" s="6">
         <v>4</v>
@@ -2074,171 +2059,216 @@
       <c r="D21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
+        <v>42744</v>
+      </c>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="6">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="13">
+        <v>42745</v>
+      </c>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="6">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="13">
+        <v>42746</v>
+      </c>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="6">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="13">
         <v>42747</v>
       </c>
-      <c r="I21" s="26"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I22" s="26"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="25"/>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="24"/>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="26"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="D28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="26"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="26"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="26"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="26"/>
+      <c r="I28" s="30"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="30"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="30"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="14" t="s">
+      <c r="D32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I29" s="26"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I30" s="26"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I31" s="26"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I32" s="26"/>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I33" s="26"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I34" s="26"/>
+      <c r="I34" s="30"/>
     </row>
     <row r="35" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I35" s="26"/>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I36" s="26"/>
+      <c r="I36" s="30"/>
     </row>
     <row r="37" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I37" s="26"/>
+      <c r="I37" s="30"/>
     </row>
     <row r="38" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I38" s="26"/>
+      <c r="I38" s="30"/>
     </row>
     <row r="39" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I39" s="26"/>
+      <c r="I39" s="30"/>
     </row>
     <row r="40" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I40" s="26"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I41" s="26"/>
+      <c r="I41" s="30"/>
     </row>
     <row r="42" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I42" s="26"/>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I43" s="26"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I44" s="26"/>
+      <c r="I44" s="30"/>
     </row>
     <row r="45" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I45" s="26"/>
+      <c r="I45" s="30"/>
     </row>
     <row r="46" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I46" s="26"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I47" s="26"/>
+      <c r="I47" s="30"/>
     </row>
     <row r="48" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I48" s="26"/>
+      <c r="I48" s="30"/>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I49" s="26"/>
+      <c r="I49" s="30"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="30"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I27:I28"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I49:I50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Docs/Excel/Schedule&Priorities_OnSiteX.xlsx
+++ b/Docs/Excel/Schedule&Priorities_OnSiteX.xlsx
@@ -1809,7 +1809,7 @@
   <dimension ref="B1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:B39"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1883,7 +1883,7 @@
         <v>2.1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" s="13">
         <v>42740</v>
@@ -1898,7 +1898,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5" s="13">
         <v>42740</v>
@@ -1913,7 +1913,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6" s="13">
         <v>42741</v>
@@ -2245,6 +2245,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I49:I50"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
@@ -2257,18 +2269,6 @@
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I49:I50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Docs/Excel/Schedule&Priorities_OnSiteX.xlsx
+++ b/Docs/Excel/Schedule&Priorities_OnSiteX.xlsx
@@ -2245,6 +2245,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
     <mergeCell ref="I51:I52"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="I31:I32"/>
@@ -2257,18 +2269,6 @@
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="I47:I48"/>
     <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Docs/Excel/Schedule&Priorities_OnSiteX.xlsx
+++ b/Docs/Excel/Schedule&Priorities_OnSiteX.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24945" windowHeight="13830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24945" windowHeight="13830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MD Table" sheetId="1" r:id="rId1"/>
     <sheet name="Table" sheetId="2" r:id="rId2"/>
+    <sheet name="ToDo Qs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="47">
   <si>
     <t>|</t>
   </si>
@@ -145,6 +146,27 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Questions which are still unclear:</t>
+  </si>
+  <si>
+    <t>Login stuff:</t>
+  </si>
+  <si>
+    <t>Check if user has already logged in (first load query)</t>
+  </si>
+  <si>
+    <t>Validate user with CouchDB</t>
+  </si>
+  <si>
+    <t>Store user data on device (reliable/simple)</t>
+  </si>
+  <si>
+    <t>retrieve user data from local storage</t>
+  </si>
+  <si>
+    <t>Load user data on app load (globally available object on load)</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2245,6 +2267,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I49:I50"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
@@ -2257,20 +2291,58 @@
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I49:I50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/Excel/Schedule&Priorities_OnSiteX.xlsx
+++ b/Docs/Excel/Schedule&Priorities_OnSiteX.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24945" windowHeight="13830" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24945" windowHeight="13830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MD Table" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="48">
   <si>
     <t>|</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Load user data on app load (globally available object on load)</t>
+  </si>
+  <si>
+    <t>★★★★☆</t>
   </si>
 </sst>
 </file>
@@ -1830,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1986,7 +1989,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12" s="13">
         <v>42742</v>
@@ -2001,7 +2004,7 @@
         <v>3.1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13" s="13">
         <v>42742</v>
@@ -2198,7 +2201,7 @@
         <v>20</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>27</v>
@@ -2267,6 +2270,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
     <mergeCell ref="I51:I52"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="I31:I32"/>
@@ -2279,18 +2294,6 @@
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="I47:I48"/>
     <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2301,7 +2304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:C10"/>
     </sheetView>
   </sheetViews>
